--- a/biology/Histoire de la zoologie et de la botanique/Worth_Hamilton_Weller/Worth_Hamilton_Weller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Worth_Hamilton_Weller/Worth_Hamilton_Weller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Worth Hamilton Weller est un herpétologiste américain, né le 28 mai 1913 à Cincinnati et mort le 22 juin 1931 à Grandfather Mountain, près du Grand Canyon de Caroline du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie auprès du spécialiste des salamandres Emmett Reid Dunn (1894-1956) à l’Haverford College. Il découvre, avec Ralph Dury (1899-?), les premiers spécimens de Plethodon welleri. Seulement une semaine après avoir obtenu son diplôme, il meurt d’une chute dans le Grandfather Mountain, alors qu’il recherchait d’autres spécimens de cette nouvelle espèce. C’est Charles Frederic Walker (1904-1979) qui en fait sa description et qui dédié son nom à Weller. Chercheur précoce et prometteur, il compte une dizaine publications au moment de sa mort, à seulement dix-huit ans. 
 </t>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Biographie de Ellin Beltz
 Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)</t>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Walker, Charles F. and Weller, W. Hamilton, "The Identity and Status of Pseudotriton duryi" Copeia, Vol. 1932, No. 2, (Jul. 1, 1932), pp. 81–83 Published by the American Society of Ichthyologists and Herpetologists
 Weller, W. H. 1930 "Notes on amphibians collected in Carter Co., Kentucky." Proc. Junior Soc. of Nat. Sci., Cincinnati, 1, Nos. 5 and 6: 6-9 (counted).
